--- a/Lab1/analysis/Func2/int-0.xlsx
+++ b/Lab1/analysis/Func2/int-0.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilan\Programming\University\AILab\Lab1\analysis\Func2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuval\Desktop\AI lab\AILab\Lab1\analysis\Func2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,7 +566,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -605,6 +605,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1662,7 +1663,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E566-4F1B-BB5C-676DB5D76237}"/>
             </c:ext>
@@ -1676,11 +1677,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="462254880"/>
-        <c:axId val="462260456"/>
+        <c:axId val="-1867692624"/>
+        <c:axId val="-1867696976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="462254880"/>
+        <c:axId val="-1867692624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,6 +1701,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Population</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1737,12 +1794,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462260456"/>
+        <c:crossAx val="-1867696976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="462260456"/>
+        <c:axId val="-1867696976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,6 +1819,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1799,7 +1917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462254880"/>
+        <c:crossAx val="-1867692624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1849,7 +1967,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1888,6 +2006,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2945,7 +3064,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F54B-4304-B9DB-5B847DD3E363}"/>
             </c:ext>
@@ -2959,11 +3078,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="462254880"/>
-        <c:axId val="462260456"/>
+        <c:axId val="-1867686096"/>
+        <c:axId val="-1867684464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="462254880"/>
+        <c:axId val="-1867686096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -2984,6 +3103,37 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3021,12 +3171,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462260456"/>
+        <c:crossAx val="-1867684464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="462260456"/>
+        <c:axId val="-1867684464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -3047,6 +3197,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3084,7 +3290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462254880"/>
+        <c:crossAx val="-1867686096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3134,7 +3340,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3173,6 +3379,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4230,7 +4437,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7B01-441B-93E7-F5D3CF6BE1D5}"/>
             </c:ext>
@@ -4244,11 +4451,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="462254880"/>
-        <c:axId val="462260456"/>
+        <c:axId val="-1867689360"/>
+        <c:axId val="-1867687728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="462254880"/>
+        <c:axId val="-1867689360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -4269,6 +4476,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Population</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4306,12 +4569,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462260456"/>
+        <c:crossAx val="-1867687728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="462260456"/>
+        <c:axId val="-1867687728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -4332,6 +4595,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4369,7 +4688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462254880"/>
+        <c:crossAx val="-1867689360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
